--- a/ValueSet-no-basis-virtual-service-type-vs.xlsx
+++ b/ValueSet-no-basis-virtual-service-type-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-24T20:45:39+02:00</t>
+    <t>2023-07-24T23:46:56+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-no-basis-virtual-service-type-vs.xlsx
+++ b/ValueSet-no-basis-virtual-service-type-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-23T23:59:47+02:00</t>
+    <t>2023-09-05T10:10:09+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-no-basis-virtual-service-type-vs.xlsx
+++ b/ValueSet-no-basis-virtual-service-type-vs.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/no-basis-virtual-service-type-vs</t>
+    <t>http://helsenorge.no/fhir/ValueSet/no-basis-virtual-service-type-vs</t>
   </si>
   <si>
     <t>Version</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-05T10:10:09+02:00</t>
+    <t>2023-09-20T09:32:23+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-no-basis-virtual-service-type-vs.xlsx
+++ b/ValueSet-no-basis-virtual-service-type-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-20T09:32:23+02:00</t>
+    <t>2023-09-25T00:16:31+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-no-basis-virtual-service-type-vs.xlsx
+++ b/ValueSet-no-basis-virtual-service-type-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T00:16:31+02:00</t>
+    <t>2023-09-25T11:50:22+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-no-basis-virtual-service-type-vs.xlsx
+++ b/ValueSet-no-basis-virtual-service-type-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T11:50:22+02:00</t>
+    <t>2023-09-25T15:31:18+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-no-basis-virtual-service-type-vs.xlsx
+++ b/ValueSet-no-basis-virtual-service-type-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T15:31:18+02:00</t>
+    <t>2023-10-05T16:09:33+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-no-basis-virtual-service-type-vs.xlsx
+++ b/ValueSet-no-basis-virtual-service-type-vs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Property</t>
   </si>
@@ -55,10 +55,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T16:09:33+02:00</t>
+    <t>2023-10-09T22:41:16+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -302,58 +305,60 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -375,28 +380,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -418,28 +423,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-no-basis-virtual-service-type-vs.xlsx
+++ b/ValueSet-no-basis-virtual-service-type-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-09T22:41:16+02:00</t>
+    <t>2023-10-11T00:03:21+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-no-basis-virtual-service-type-vs.xlsx
+++ b/ValueSet-no-basis-virtual-service-type-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-11T00:03:21+02:00</t>
+    <t>2023-10-12T00:15:11+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-no-basis-virtual-service-type-vs.xlsx
+++ b/ValueSet-no-basis-virtual-service-type-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T00:15:11+02:00</t>
+    <t>2023-10-12T00:46:45+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-no-basis-virtual-service-type-vs.xlsx
+++ b/ValueSet-no-basis-virtual-service-type-vs.xlsx
@@ -43,7 +43,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>No Basis VirtualServiceType Value Set</t>
+    <t>No Basis VirtualServiceType Value Set.</t>
   </si>
   <si>
     <t>Status</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T00:46:45+02:00</t>
+    <t>2023-11-08T00:53:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-no-basis-virtual-service-type-vs.xlsx
+++ b/ValueSet-no-basis-virtual-service-type-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-08T00:53:28+01:00</t>
+    <t>2023-11-08T01:12:56+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-no-basis-virtual-service-type-vs.xlsx
+++ b/ValueSet-no-basis-virtual-service-type-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-08T01:12:56+01:00</t>
+    <t>2023-11-08T15:53:02+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
